--- a/AutomationTestingOfZeroBanking/src/test/resources/DataDrivenResources/newwpayeetestdata.xlsx
+++ b/AutomationTestingOfZeroBanking/src/test/resources/DataDrivenResources/newwpayeetestdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\eclipse-workspace\AutomationTestingOfZeroBanking\src\test\resources\DataDrivenResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\git\ZeroBankingProject\AutomationTestingOfZeroBanking\src\test\resources\DataDrivenResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,9 +33,6 @@
     <t>Payee Details</t>
   </si>
   <si>
-    <t>John Brown</t>
-  </si>
-  <si>
     <t>23 Corlan Way</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Client that is easy to reach</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,30 +411,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
